--- a/IPTC_Paper/RawInputs.xlsx
+++ b/IPTC_Paper/RawInputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\IPTC_Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\IPTC_Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9669B3-DF56-40D8-B606-6CEC63EA3106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A29DE2-1B6D-4F9D-9C1E-DD55F495841A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3860" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3860" uniqueCount="70">
   <si>
     <t>Production (MMBOE)</t>
   </si>
@@ -246,10 +246,7 @@
     <t>Year</t>
   </si>
   <si>
-    <t>True Power Consumed per day (kL/d)</t>
-  </si>
-  <si>
-    <t>Factoring in Efficiency</t>
+    <t>True Power Consumed per day (kL/d) Factoring in Efficiency</t>
   </si>
 </sst>
 </file>
@@ -262,7 +259,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +278,13 @@
       <color theme="1" tint="0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -541,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -655,6 +659,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -679,22 +698,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -977,1768 +984,1775 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28159D05-4F46-4142-AF9B-B84831454057}">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="A23" sqref="A23:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="51" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="34.5703125" style="51" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" style="51" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" style="51" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5" style="51" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" style="51" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="51" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" style="51" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" style="51" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11" style="51" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12" style="51" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="18.140625" style="51" customWidth="1"/>
-    <col min="26" max="16384" width="6.85546875" style="51"/>
+    <col min="1" max="1" width="7.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="34.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="42" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" style="42" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" style="42" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="42" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" style="42" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" style="42" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" style="42" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" style="42" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="18.140625" style="42" customWidth="1"/>
+    <col min="26" max="16384" width="6.85546875" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="51" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47" t="s">
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47" t="s">
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="48" t="s">
+      <c r="K2" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="48" t="s">
+      <c r="S2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="T2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="48" t="s">
+      <c r="U2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="48" t="s">
+      <c r="V2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="48" t="s">
+      <c r="W2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="51" t="s">
+      <c r="X2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="48" t="s">
+      <c r="Y2" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="48">
+      <c r="A3" s="39">
         <v>2024</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="40">
         <v>0.5</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="40">
         <v>0.95655632348544961</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="40">
         <v>1.83</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="39">
         <v>100</v>
       </c>
-      <c r="F3" s="48">
+      <c r="F3" s="39">
         <v>150</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="39">
         <v>200</v>
       </c>
-      <c r="H3" s="48">
+      <c r="H3" s="39">
         <v>29199.999999999996</v>
       </c>
-      <c r="I3" s="50">
+      <c r="I3" s="41">
         <v>83025.578580102214</v>
       </c>
-      <c r="J3" s="50">
+      <c r="J3" s="41">
         <v>209857.74545454548</v>
       </c>
-      <c r="K3" s="51">
+      <c r="K3" s="42">
         <f>L3*0.9</f>
         <v>17.884800000000002</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="39">
         <v>19.872</v>
       </c>
-      <c r="M3" s="51">
+      <c r="M3" s="42">
         <f>L3*1.1</f>
         <v>21.859200000000001</v>
       </c>
-      <c r="N3" s="48">
+      <c r="N3" s="39">
         <v>4</v>
       </c>
-      <c r="O3" s="48">
+      <c r="O3" s="39">
         <v>5</v>
       </c>
-      <c r="P3" s="48">
+      <c r="P3" s="39">
         <v>6</v>
       </c>
-      <c r="Q3" s="48">
+      <c r="Q3" s="39">
         <v>49.934328000000022</v>
       </c>
-      <c r="R3" s="48">
+      <c r="R3" s="39">
         <v>65.243812499999962</v>
       </c>
-      <c r="S3" s="48">
+      <c r="S3" s="39">
         <v>79.126187315200013</v>
       </c>
-      <c r="T3" s="48">
+      <c r="T3" s="39">
         <v>34.934328000000022</v>
       </c>
-      <c r="U3" s="48">
+      <c r="U3" s="39">
         <v>45.243812499999962</v>
       </c>
-      <c r="V3" s="48">
+      <c r="V3" s="39">
         <v>54.126187315200013</v>
       </c>
-      <c r="W3" s="48">
+      <c r="W3" s="39">
         <v>0</v>
       </c>
-      <c r="X3" s="51">
+      <c r="X3" s="42">
         <f>AVERAGE(W3,Y3)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="48">
+      <c r="Y3" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="48">
+      <c r="A4" s="39">
         <v>2025</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="40">
         <v>10.8</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="40">
         <v>10.9</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="40">
         <v>11</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="39">
         <v>100</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="39">
         <v>150</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="39">
         <v>200</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="39">
         <v>630720</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="39">
         <v>946080</v>
       </c>
-      <c r="J4" s="48">
+      <c r="J4" s="39">
         <v>1261440</v>
       </c>
-      <c r="K4" s="51">
+      <c r="K4" s="42">
         <f t="shared" ref="K4:K22" si="0">L4*0.9</f>
         <v>17.884800000000002</v>
       </c>
-      <c r="L4" s="48">
+      <c r="L4" s="39">
         <v>19.872</v>
       </c>
-      <c r="M4" s="51">
+      <c r="M4" s="42">
         <f t="shared" ref="M4:M22" si="1">L4*1.1</f>
         <v>21.859200000000001</v>
       </c>
-      <c r="N4" s="48">
+      <c r="N4" s="39">
         <v>4</v>
       </c>
-      <c r="O4" s="48">
+      <c r="O4" s="39">
         <v>5</v>
       </c>
-      <c r="P4" s="48">
+      <c r="P4" s="39">
         <v>6</v>
       </c>
-      <c r="Q4" s="48">
+      <c r="Q4" s="39">
         <v>49.934328000000022</v>
       </c>
-      <c r="R4" s="48">
+      <c r="R4" s="39">
         <v>65.243812499999962</v>
       </c>
-      <c r="S4" s="48">
+      <c r="S4" s="39">
         <v>79.126187315200013</v>
       </c>
-      <c r="T4" s="48">
+      <c r="T4" s="39">
         <v>34.934328000000022</v>
       </c>
-      <c r="U4" s="48">
+      <c r="U4" s="39">
         <v>45.243812499999962</v>
       </c>
-      <c r="V4" s="48">
+      <c r="V4" s="39">
         <v>54.126187315200013</v>
       </c>
-      <c r="W4" s="48">
+      <c r="W4" s="39">
         <v>4539.2585714285724</v>
       </c>
-      <c r="X4" s="51">
+      <c r="X4" s="42">
         <f t="shared" ref="X4:X22" si="2">AVERAGE(W4,Y4)</f>
         <v>6000.7178571428576</v>
       </c>
-      <c r="Y4" s="48">
+      <c r="Y4" s="39">
         <v>7462.1771428571437</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="48">
+      <c r="A5" s="39">
         <v>2026</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="40">
         <v>18.149999999999999</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="40">
         <v>18.324999999999999</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="40">
         <v>18.5</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="39">
         <v>100</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="39">
         <v>150</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="39">
         <v>200</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="39">
         <v>630720</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="39">
         <v>946080</v>
       </c>
-      <c r="J5" s="48">
+      <c r="J5" s="39">
         <v>1261440</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="42">
         <f t="shared" si="0"/>
         <v>17.884800000000002</v>
       </c>
-      <c r="L5" s="48">
+      <c r="L5" s="39">
         <v>19.872</v>
       </c>
-      <c r="M5" s="51">
+      <c r="M5" s="42">
         <f t="shared" si="1"/>
         <v>21.859200000000001</v>
       </c>
-      <c r="N5" s="48">
+      <c r="N5" s="39">
         <v>4</v>
       </c>
-      <c r="O5" s="48">
+      <c r="O5" s="39">
         <v>5</v>
       </c>
-      <c r="P5" s="48">
+      <c r="P5" s="39">
         <v>6</v>
       </c>
-      <c r="Q5" s="48">
+      <c r="Q5" s="39">
         <v>49.934328000000022</v>
       </c>
-      <c r="R5" s="48">
+      <c r="R5" s="39">
         <v>65.243812499999962</v>
       </c>
-      <c r="S5" s="48">
+      <c r="S5" s="39">
         <v>79.126187315200013</v>
       </c>
-      <c r="T5" s="48">
+      <c r="T5" s="39">
         <v>34.934328000000022</v>
       </c>
-      <c r="U5" s="48">
+      <c r="U5" s="39">
         <v>45.243812499999962</v>
       </c>
-      <c r="V5" s="48">
+      <c r="V5" s="39">
         <v>54.126187315200013</v>
       </c>
-      <c r="W5" s="48">
+      <c r="W5" s="39">
         <v>4539.2585714285724</v>
       </c>
-      <c r="X5" s="51">
+      <c r="X5" s="42">
         <f t="shared" si="2"/>
         <v>6000.7178571428576</v>
       </c>
-      <c r="Y5" s="48">
+      <c r="Y5" s="39">
         <v>7462.1771428571437</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="48">
+      <c r="A6" s="39">
         <v>2027</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="40">
         <v>18.149999999999999</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="40">
         <v>18.324999999999999</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="40">
         <v>18.5</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="39">
         <v>100</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="39">
         <v>150</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="39">
         <v>200</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="39">
         <v>630720</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="39">
         <v>946080</v>
       </c>
-      <c r="J6" s="48">
+      <c r="J6" s="39">
         <v>1261440</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="42">
         <f t="shared" si="0"/>
         <v>17.884800000000002</v>
       </c>
-      <c r="L6" s="48">
+      <c r="L6" s="39">
         <v>19.872</v>
       </c>
-      <c r="M6" s="51">
+      <c r="M6" s="42">
         <f t="shared" si="1"/>
         <v>21.859200000000001</v>
       </c>
-      <c r="N6" s="48">
+      <c r="N6" s="39">
         <v>4</v>
       </c>
-      <c r="O6" s="48">
+      <c r="O6" s="39">
         <v>5</v>
       </c>
-      <c r="P6" s="48">
+      <c r="P6" s="39">
         <v>6</v>
       </c>
-      <c r="Q6" s="48">
+      <c r="Q6" s="39">
         <v>49.934328000000022</v>
       </c>
-      <c r="R6" s="48">
+      <c r="R6" s="39">
         <v>65.243812499999962</v>
       </c>
-      <c r="S6" s="48">
+      <c r="S6" s="39">
         <v>79.126187315200013</v>
       </c>
-      <c r="T6" s="48">
+      <c r="T6" s="39">
         <v>34.934328000000022</v>
       </c>
-      <c r="U6" s="48">
+      <c r="U6" s="39">
         <v>45.243812499999962</v>
       </c>
-      <c r="V6" s="48">
+      <c r="V6" s="39">
         <v>54.126187315200013</v>
       </c>
-      <c r="W6" s="48">
+      <c r="W6" s="39">
         <v>4539.2585714285724</v>
       </c>
-      <c r="X6" s="51">
+      <c r="X6" s="42">
         <f t="shared" si="2"/>
         <v>6000.7178571428576</v>
       </c>
-      <c r="Y6" s="48">
+      <c r="Y6" s="39">
         <v>7462.1771428571437</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="48">
+      <c r="A7" s="39">
         <v>2028</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="40">
         <v>18.149999999999999</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="40">
         <v>18.574999999999999</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="40">
         <v>19</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="39">
         <v>100</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="39">
         <v>150</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="39">
         <v>200</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="39">
         <v>630720</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="39">
         <v>946080</v>
       </c>
-      <c r="J7" s="48">
+      <c r="J7" s="39">
         <v>1261440</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="42">
         <f t="shared" si="0"/>
         <v>17.884800000000002</v>
       </c>
-      <c r="L7" s="48">
+      <c r="L7" s="39">
         <v>19.872</v>
       </c>
-      <c r="M7" s="51">
+      <c r="M7" s="42">
         <f t="shared" si="1"/>
         <v>21.859200000000001</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="39">
         <v>4</v>
       </c>
-      <c r="O7" s="48">
+      <c r="O7" s="39">
         <v>5</v>
       </c>
-      <c r="P7" s="48">
+      <c r="P7" s="39">
         <v>6</v>
       </c>
-      <c r="Q7" s="48">
+      <c r="Q7" s="39">
         <v>49.934328000000022</v>
       </c>
-      <c r="R7" s="48">
+      <c r="R7" s="39">
         <v>65.243812499999962</v>
       </c>
-      <c r="S7" s="48">
+      <c r="S7" s="39">
         <v>79.126187315200013</v>
       </c>
-      <c r="T7" s="48">
+      <c r="T7" s="39">
         <v>34.934328000000022</v>
       </c>
-      <c r="U7" s="48">
+      <c r="U7" s="39">
         <v>45.243812499999962</v>
       </c>
-      <c r="V7" s="48">
+      <c r="V7" s="39">
         <v>54.126187315200013</v>
       </c>
-      <c r="W7" s="48">
+      <c r="W7" s="39">
         <v>4539.2585714285724</v>
       </c>
-      <c r="X7" s="51">
+      <c r="X7" s="42">
         <f t="shared" si="2"/>
         <v>6000.7178571428576</v>
       </c>
-      <c r="Y7" s="48">
+      <c r="Y7" s="39">
         <v>7462.1771428571437</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="48">
+      <c r="A8" s="39">
         <v>2029</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="40">
         <v>12.775</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="40">
         <v>15.887499999999999</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="40">
         <v>19</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="39">
         <v>100</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="39">
         <v>150</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="39">
         <v>200</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="39">
         <v>630720</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="39">
         <v>946080</v>
       </c>
-      <c r="J8" s="48">
+      <c r="J8" s="39">
         <v>1261440</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="42">
         <f t="shared" si="0"/>
         <v>17.884800000000002</v>
       </c>
-      <c r="L8" s="48">
+      <c r="L8" s="39">
         <v>19.872</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="42">
         <f t="shared" si="1"/>
         <v>21.859200000000001</v>
       </c>
-      <c r="N8" s="48">
+      <c r="N8" s="39">
         <v>4</v>
       </c>
-      <c r="O8" s="48">
+      <c r="O8" s="39">
         <v>5</v>
       </c>
-      <c r="P8" s="48">
+      <c r="P8" s="39">
         <v>6</v>
       </c>
-      <c r="Q8" s="48">
+      <c r="Q8" s="39">
         <v>49.934328000000022</v>
       </c>
-      <c r="R8" s="48">
+      <c r="R8" s="39">
         <v>65.243812499999962</v>
       </c>
-      <c r="S8" s="48">
+      <c r="S8" s="39">
         <v>79.126187315200013</v>
       </c>
-      <c r="T8" s="48">
+      <c r="T8" s="39">
         <v>34.934328000000022</v>
       </c>
-      <c r="U8" s="48">
+      <c r="U8" s="39">
         <v>45.243812499999962</v>
       </c>
-      <c r="V8" s="48">
+      <c r="V8" s="39">
         <v>54.126187315200013</v>
       </c>
-      <c r="W8" s="48">
+      <c r="W8" s="39">
         <v>4539.2585714285724</v>
       </c>
-      <c r="X8" s="51">
+      <c r="X8" s="42">
         <f t="shared" si="2"/>
         <v>6000.7178571428576</v>
       </c>
-      <c r="Y8" s="48">
+      <c r="Y8" s="39">
         <v>7462.1771428571437</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="48">
+      <c r="A9" s="39">
         <v>2030</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="40">
         <v>9.2553571428571413</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="40">
         <v>14.127678571428572</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="40">
         <v>19</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="39">
         <v>100</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="39">
         <v>150</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="39">
         <v>200</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="39">
         <v>630720</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="39">
         <v>946080</v>
       </c>
-      <c r="J9" s="48">
+      <c r="J9" s="39">
         <v>1261440</v>
       </c>
-      <c r="K9" s="51">
+      <c r="K9" s="42">
         <f t="shared" si="0"/>
         <v>17.884800000000002</v>
       </c>
-      <c r="L9" s="48">
+      <c r="L9" s="39">
         <v>19.872</v>
       </c>
-      <c r="M9" s="51">
+      <c r="M9" s="42">
         <f t="shared" si="1"/>
         <v>21.859200000000001</v>
       </c>
-      <c r="N9" s="48">
+      <c r="N9" s="39">
         <v>4</v>
       </c>
-      <c r="O9" s="48">
+      <c r="O9" s="39">
         <v>5</v>
       </c>
-      <c r="P9" s="48">
+      <c r="P9" s="39">
         <v>6</v>
       </c>
-      <c r="Q9" s="48">
+      <c r="Q9" s="39">
         <v>49.934328000000022</v>
       </c>
-      <c r="R9" s="48">
+      <c r="R9" s="39">
         <v>65.243812499999962</v>
       </c>
-      <c r="S9" s="48">
+      <c r="S9" s="39">
         <v>79.126187315200013</v>
       </c>
-      <c r="T9" s="48">
+      <c r="T9" s="39">
         <v>34.934328000000022</v>
       </c>
-      <c r="U9" s="48">
+      <c r="U9" s="39">
         <v>45.243812499999962</v>
       </c>
-      <c r="V9" s="48">
+      <c r="V9" s="39">
         <v>54.126187315200013</v>
       </c>
-      <c r="W9" s="48">
+      <c r="W9" s="39">
         <v>4539.2585714285724</v>
       </c>
-      <c r="X9" s="51">
+      <c r="X9" s="42">
         <f t="shared" si="2"/>
         <v>6000.7178571428576</v>
       </c>
-      <c r="Y9" s="48">
+      <c r="Y9" s="39">
         <v>7462.1771428571437</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="48">
+      <c r="A10" s="39">
         <v>2031</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="40">
         <v>6.6482142857142863</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="40">
         <v>11.239042282533305</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="40">
         <v>19</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="39">
         <v>100</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="39">
         <v>150</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="39">
         <v>200</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="39">
         <v>630720</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="39">
         <v>946080</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="39">
         <v>1261440</v>
       </c>
-      <c r="K10" s="51">
+      <c r="K10" s="42">
         <f t="shared" si="0"/>
         <v>17.884800000000002</v>
       </c>
-      <c r="L10" s="48">
+      <c r="L10" s="39">
         <v>19.872</v>
       </c>
-      <c r="M10" s="51">
+      <c r="M10" s="42">
         <f t="shared" si="1"/>
         <v>21.859200000000001</v>
       </c>
-      <c r="N10" s="48">
+      <c r="N10" s="39">
         <v>4</v>
       </c>
-      <c r="O10" s="48">
+      <c r="O10" s="39">
         <v>5</v>
       </c>
-      <c r="P10" s="48">
+      <c r="P10" s="39">
         <v>6</v>
       </c>
-      <c r="Q10" s="48">
+      <c r="Q10" s="39">
         <v>49.934328000000022</v>
       </c>
-      <c r="R10" s="48">
+      <c r="R10" s="39">
         <v>65.243812499999962</v>
       </c>
-      <c r="S10" s="48">
+      <c r="S10" s="39">
         <v>79.126187315200013</v>
       </c>
-      <c r="T10" s="48">
+      <c r="T10" s="39">
         <v>34.934328000000022</v>
       </c>
-      <c r="U10" s="48">
+      <c r="U10" s="39">
         <v>45.243812499999962</v>
       </c>
-      <c r="V10" s="48">
+      <c r="V10" s="39">
         <v>54.126187315200013</v>
       </c>
-      <c r="W10" s="48">
+      <c r="W10" s="39">
         <v>4539.2585714285724</v>
       </c>
-      <c r="X10" s="51">
+      <c r="X10" s="42">
         <f t="shared" si="2"/>
         <v>6000.7178571428576</v>
       </c>
-      <c r="Y10" s="48">
+      <c r="Y10" s="39">
         <v>7462.1771428571437</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="48">
+      <c r="A11" s="39">
         <v>2032</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="40">
         <v>4.9535714285714292</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="40">
         <v>9.7014358289305385</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="40">
         <v>19</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="39">
         <v>100</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="39">
         <v>150</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="39">
         <v>200</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="39">
         <v>630720</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="39">
         <v>946080</v>
       </c>
-      <c r="J11" s="48">
+      <c r="J11" s="39">
         <v>1261440</v>
       </c>
-      <c r="K11" s="51">
+      <c r="K11" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="48">
+      <c r="L11" s="39">
         <v>0</v>
       </c>
-      <c r="M11" s="51">
+      <c r="M11" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N11" s="48">
+      <c r="N11" s="39">
         <v>0</v>
       </c>
-      <c r="O11" s="48">
+      <c r="O11" s="39">
         <v>0</v>
       </c>
-      <c r="P11" s="48">
+      <c r="P11" s="39">
         <v>0</v>
       </c>
-      <c r="Q11" s="48">
+      <c r="Q11" s="39">
         <v>0</v>
       </c>
-      <c r="R11" s="48">
+      <c r="R11" s="39">
         <v>0</v>
       </c>
-      <c r="S11" s="48">
+      <c r="S11" s="39">
         <v>0</v>
       </c>
-      <c r="T11" s="48">
+      <c r="T11" s="39">
         <v>0</v>
       </c>
-      <c r="U11" s="48">
+      <c r="U11" s="39">
         <v>0</v>
       </c>
-      <c r="V11" s="48">
+      <c r="V11" s="39">
         <v>0</v>
       </c>
-      <c r="W11" s="48">
+      <c r="W11" s="39">
         <v>0</v>
       </c>
-      <c r="X11" s="51">
+      <c r="X11" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="48">
+      <c r="Y11" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
+      <c r="A12" s="39">
         <v>2033</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="40">
         <v>3.65</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="40">
         <v>8.3276647386887515</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="40">
         <v>19</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="39">
         <v>100</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="39">
         <v>150</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="39">
         <v>200</v>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="39">
         <v>630720</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="39">
         <v>946080</v>
       </c>
-      <c r="J12" s="48">
+      <c r="J12" s="39">
         <v>1261440</v>
       </c>
-      <c r="K12" s="51">
+      <c r="K12" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="48">
+      <c r="L12" s="39">
         <v>0</v>
       </c>
-      <c r="M12" s="51">
+      <c r="M12" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N12" s="48">
+      <c r="N12" s="39">
         <v>0</v>
       </c>
-      <c r="O12" s="48">
+      <c r="O12" s="39">
         <v>0</v>
       </c>
-      <c r="P12" s="48">
+      <c r="P12" s="39">
         <v>0</v>
       </c>
-      <c r="Q12" s="48">
+      <c r="Q12" s="39">
         <v>0</v>
       </c>
-      <c r="R12" s="48">
+      <c r="R12" s="39">
         <v>0</v>
       </c>
-      <c r="S12" s="48">
+      <c r="S12" s="39">
         <v>0</v>
       </c>
-      <c r="T12" s="48">
+      <c r="T12" s="39">
         <v>0</v>
       </c>
-      <c r="U12" s="48">
+      <c r="U12" s="39">
         <v>0</v>
       </c>
-      <c r="V12" s="48">
+      <c r="V12" s="39">
         <v>0</v>
       </c>
-      <c r="W12" s="48">
+      <c r="W12" s="39">
         <v>0</v>
       </c>
-      <c r="X12" s="51">
+      <c r="X12" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="48">
+      <c r="Y12" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="48">
+      <c r="A13" s="39">
         <v>2034</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="40">
         <v>2.7374999999999998</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="40">
         <v>7.2119692179043575</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="40">
         <v>19</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="39">
         <v>100</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="39">
         <v>150</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="39">
         <v>200</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="39">
         <v>630720</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="39">
         <v>946080</v>
       </c>
-      <c r="J13" s="48">
+      <c r="J13" s="39">
         <v>1261440</v>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="48">
+      <c r="L13" s="39">
         <v>0</v>
       </c>
-      <c r="M13" s="51">
+      <c r="M13" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="39">
         <v>0</v>
       </c>
-      <c r="O13" s="48">
+      <c r="O13" s="39">
         <v>0</v>
       </c>
-      <c r="P13" s="48">
+      <c r="P13" s="39">
         <v>0</v>
       </c>
-      <c r="Q13" s="48">
+      <c r="Q13" s="39">
         <v>0</v>
       </c>
-      <c r="R13" s="48">
+      <c r="R13" s="39">
         <v>0</v>
       </c>
-      <c r="S13" s="48">
+      <c r="S13" s="39">
         <v>0</v>
       </c>
-      <c r="T13" s="48">
+      <c r="T13" s="39">
         <v>0</v>
       </c>
-      <c r="U13" s="48">
+      <c r="U13" s="39">
         <v>0</v>
       </c>
-      <c r="V13" s="48">
+      <c r="V13" s="39">
         <v>0</v>
       </c>
-      <c r="W13" s="48">
+      <c r="W13" s="39">
         <v>0</v>
       </c>
-      <c r="X13" s="51">
+      <c r="X13" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="48">
+      <c r="Y13" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="48">
+      <c r="A14" s="39">
         <v>2035</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="40">
         <v>1.9553571428571426</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="40">
         <v>4.9467057684062503</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="40">
         <v>12.514285714285714</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="39">
         <v>100</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="39">
         <v>150</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="39">
         <v>200</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="39">
         <v>630720</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="39">
         <v>946080</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="39">
         <v>1261440</v>
       </c>
-      <c r="K14" s="51">
+      <c r="K14" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="48">
+      <c r="L14" s="39">
         <v>0</v>
       </c>
-      <c r="M14" s="51">
+      <c r="M14" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N14" s="48">
+      <c r="N14" s="39">
         <v>0</v>
       </c>
-      <c r="O14" s="48">
+      <c r="O14" s="39">
         <v>0</v>
       </c>
-      <c r="P14" s="48">
+      <c r="P14" s="39">
         <v>0</v>
       </c>
-      <c r="Q14" s="48">
+      <c r="Q14" s="39">
         <v>0</v>
       </c>
-      <c r="R14" s="48">
+      <c r="R14" s="39">
         <v>0</v>
       </c>
-      <c r="S14" s="48">
+      <c r="S14" s="39">
         <v>0</v>
       </c>
-      <c r="T14" s="48">
+      <c r="T14" s="39">
         <v>0</v>
       </c>
-      <c r="U14" s="48">
+      <c r="U14" s="39">
         <v>0</v>
       </c>
-      <c r="V14" s="48">
+      <c r="V14" s="39">
         <v>0</v>
       </c>
-      <c r="W14" s="48">
+      <c r="W14" s="39">
         <v>0</v>
       </c>
-      <c r="X14" s="51">
+      <c r="X14" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="48">
+      <c r="Y14" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="48">
+      <c r="A15" s="39">
         <v>2036</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="40">
         <v>1</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="40">
         <v>3.0422618465308244</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="40">
         <v>9.2553571428571413</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="39">
         <v>100</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="39">
         <v>150</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="39">
         <v>200</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="39">
         <v>630720</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="39">
         <v>946080</v>
       </c>
-      <c r="J15" s="48">
+      <c r="J15" s="39">
         <v>1261440</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="48">
+      <c r="L15" s="39">
         <v>0</v>
       </c>
-      <c r="M15" s="51">
+      <c r="M15" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="48">
+      <c r="N15" s="39">
         <v>0</v>
       </c>
-      <c r="O15" s="48">
+      <c r="O15" s="39">
         <v>0</v>
       </c>
-      <c r="P15" s="48">
+      <c r="P15" s="39">
         <v>0</v>
       </c>
-      <c r="Q15" s="48">
+      <c r="Q15" s="39">
         <v>0</v>
       </c>
-      <c r="R15" s="48">
+      <c r="R15" s="39">
         <v>0</v>
       </c>
-      <c r="S15" s="48">
+      <c r="S15" s="39">
         <v>0</v>
       </c>
-      <c r="T15" s="48">
+      <c r="T15" s="39">
         <v>0</v>
       </c>
-      <c r="U15" s="48">
+      <c r="U15" s="39">
         <v>0</v>
       </c>
-      <c r="V15" s="48">
+      <c r="V15" s="39">
         <v>0</v>
       </c>
-      <c r="W15" s="48">
+      <c r="W15" s="39">
         <v>0</v>
       </c>
-      <c r="X15" s="51">
+      <c r="X15" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="48">
+      <c r="Y15" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="48">
+      <c r="A16" s="39">
         <v>2037</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="40">
         <v>1</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="40">
         <v>2.5784131332496516</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="40">
         <v>6.6482142857142863</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="39">
         <v>100</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="39">
         <v>150</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="39">
         <v>200</v>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="39">
         <v>630720</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="39">
         <v>946080</v>
       </c>
-      <c r="J16" s="48">
+      <c r="J16" s="39">
         <v>1261440</v>
       </c>
-      <c r="K16" s="51">
+      <c r="K16" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="48">
+      <c r="L16" s="39">
         <v>0</v>
       </c>
-      <c r="M16" s="51">
+      <c r="M16" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="39">
         <v>0</v>
       </c>
-      <c r="O16" s="48">
+      <c r="O16" s="39">
         <v>0</v>
       </c>
-      <c r="P16" s="48">
+      <c r="P16" s="39">
         <v>0</v>
       </c>
-      <c r="Q16" s="48">
+      <c r="Q16" s="39">
         <v>0</v>
       </c>
-      <c r="R16" s="48">
+      <c r="R16" s="39">
         <v>0</v>
       </c>
-      <c r="S16" s="48">
+      <c r="S16" s="39">
         <v>0</v>
       </c>
-      <c r="T16" s="48">
+      <c r="T16" s="39">
         <v>0</v>
       </c>
-      <c r="U16" s="48">
+      <c r="U16" s="39">
         <v>0</v>
       </c>
-      <c r="V16" s="48">
+      <c r="V16" s="39">
         <v>0</v>
       </c>
-      <c r="W16" s="48">
+      <c r="W16" s="39">
         <v>0</v>
       </c>
-      <c r="X16" s="51">
+      <c r="X16" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="48">
+      <c r="Y16" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="48">
+      <c r="A17" s="39">
         <v>2038</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="40">
         <v>0.5</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="40">
         <v>1.5737807071780092</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="40">
         <v>4.9535714285714292</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="39">
         <v>100</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="39">
         <v>150</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="39">
         <v>200</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="39">
         <v>630720</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="39">
         <v>946080</v>
       </c>
-      <c r="J17" s="48">
+      <c r="J17" s="39">
         <v>1261440</v>
       </c>
-      <c r="K17" s="51">
+      <c r="K17" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="48">
+      <c r="L17" s="39">
         <v>0</v>
       </c>
-      <c r="M17" s="51">
+      <c r="M17" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="39">
         <v>0</v>
       </c>
-      <c r="O17" s="48">
+      <c r="O17" s="39">
         <v>0</v>
       </c>
-      <c r="P17" s="48">
+      <c r="P17" s="39">
         <v>0</v>
       </c>
-      <c r="Q17" s="48">
+      <c r="Q17" s="39">
         <v>0</v>
       </c>
-      <c r="R17" s="48">
+      <c r="R17" s="39">
         <v>0</v>
       </c>
-      <c r="S17" s="48">
+      <c r="S17" s="39">
         <v>0</v>
       </c>
-      <c r="T17" s="48">
+      <c r="T17" s="39">
         <v>0</v>
       </c>
-      <c r="U17" s="48">
+      <c r="U17" s="39">
         <v>0</v>
       </c>
-      <c r="V17" s="48">
+      <c r="V17" s="39">
         <v>0</v>
       </c>
-      <c r="W17" s="48">
+      <c r="W17" s="39">
         <v>0</v>
       </c>
-      <c r="X17" s="51">
+      <c r="X17" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="48">
+      <c r="Y17" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="48">
+      <c r="A18" s="39">
         <v>2039</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="40">
         <v>0.5</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="40">
         <v>1.3265826127955351</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="40">
         <v>3.5196428571428569</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="39">
         <v>100</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="39">
         <v>150</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="39">
         <v>200</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="39">
         <v>630720</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="39">
         <v>946080</v>
       </c>
-      <c r="J18" s="48">
+      <c r="J18" s="39">
         <v>1261440</v>
       </c>
-      <c r="K18" s="51">
+      <c r="K18" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="48">
+      <c r="L18" s="39">
         <v>0</v>
       </c>
-      <c r="M18" s="51">
+      <c r="M18" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N18" s="48">
+      <c r="N18" s="39">
         <v>0</v>
       </c>
-      <c r="O18" s="48">
+      <c r="O18" s="39">
         <v>0</v>
       </c>
-      <c r="P18" s="48">
+      <c r="P18" s="39">
         <v>0</v>
       </c>
-      <c r="Q18" s="48">
+      <c r="Q18" s="39">
         <v>0</v>
       </c>
-      <c r="R18" s="48">
+      <c r="R18" s="39">
         <v>0</v>
       </c>
-      <c r="S18" s="48">
+      <c r="S18" s="39">
         <v>0</v>
       </c>
-      <c r="T18" s="48">
+      <c r="T18" s="39">
         <v>0</v>
       </c>
-      <c r="U18" s="48">
+      <c r="U18" s="39">
         <v>0</v>
       </c>
-      <c r="V18" s="48">
+      <c r="V18" s="39">
         <v>0</v>
       </c>
-      <c r="W18" s="48">
+      <c r="W18" s="39">
         <v>0</v>
       </c>
-      <c r="X18" s="51">
+      <c r="X18" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="48">
+      <c r="Y18" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="48">
+      <c r="A19" s="39">
         <v>2040</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="40">
         <v>0.5</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="40">
         <v>1.1417405259389843</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="40">
         <v>2.6071428571428572</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="39">
         <v>100</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="39">
         <v>150</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="39">
         <v>200</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H19" s="39">
         <v>630720</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I19" s="39">
         <v>946080</v>
       </c>
-      <c r="J19" s="48">
+      <c r="J19" s="39">
         <v>1261440</v>
       </c>
-      <c r="K19" s="51">
+      <c r="K19" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="48">
+      <c r="L19" s="39">
         <v>0</v>
       </c>
-      <c r="M19" s="51">
+      <c r="M19" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N19" s="48">
+      <c r="N19" s="39">
         <v>0</v>
       </c>
-      <c r="O19" s="48">
+      <c r="O19" s="39">
         <v>0</v>
       </c>
-      <c r="P19" s="48">
+      <c r="P19" s="39">
         <v>0</v>
       </c>
-      <c r="Q19" s="48">
+      <c r="Q19" s="39">
         <v>0</v>
       </c>
-      <c r="R19" s="48">
+      <c r="R19" s="39">
         <v>0</v>
       </c>
-      <c r="S19" s="48">
+      <c r="S19" s="39">
         <v>0</v>
       </c>
-      <c r="T19" s="48">
+      <c r="T19" s="39">
         <v>0</v>
       </c>
-      <c r="U19" s="48">
+      <c r="U19" s="39">
         <v>0</v>
       </c>
-      <c r="V19" s="48">
+      <c r="V19" s="39">
         <v>0</v>
       </c>
-      <c r="W19" s="48">
+      <c r="W19" s="39">
         <v>0</v>
       </c>
-      <c r="X19" s="51">
+      <c r="X19" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="48">
+      <c r="Y19" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="48">
+      <c r="A20" s="39">
         <v>2041</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="40">
         <v>0.5</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="40">
         <v>0.95524865872714004</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="40">
         <v>1.825</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="39">
         <v>100</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="39">
         <v>150</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="39">
         <v>200</v>
       </c>
-      <c r="H20" s="48">
+      <c r="H20" s="39">
         <v>630720</v>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="39">
         <v>946080</v>
       </c>
-      <c r="J20" s="48">
+      <c r="J20" s="39">
         <v>1261440</v>
       </c>
-      <c r="K20" s="51">
+      <c r="K20" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="48">
+      <c r="L20" s="39">
         <v>0</v>
       </c>
-      <c r="M20" s="51">
+      <c r="M20" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N20" s="48">
+      <c r="N20" s="39">
         <v>0</v>
       </c>
-      <c r="O20" s="48">
+      <c r="O20" s="39">
         <v>0</v>
       </c>
-      <c r="P20" s="48">
+      <c r="P20" s="39">
         <v>0</v>
       </c>
-      <c r="Q20" s="48">
+      <c r="Q20" s="39">
         <v>0</v>
       </c>
-      <c r="R20" s="48">
+      <c r="R20" s="39">
         <v>0</v>
       </c>
-      <c r="S20" s="48">
+      <c r="S20" s="39">
         <v>0</v>
       </c>
-      <c r="T20" s="48">
+      <c r="T20" s="39">
         <v>0</v>
       </c>
-      <c r="U20" s="48">
+      <c r="U20" s="39">
         <v>0</v>
       </c>
-      <c r="V20" s="48">
+      <c r="V20" s="39">
         <v>0</v>
       </c>
-      <c r="W20" s="48">
+      <c r="W20" s="39">
         <v>0</v>
       </c>
-      <c r="X20" s="51">
+      <c r="X20" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="48">
+      <c r="Y20" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="48">
+      <c r="A21" s="39">
         <v>2042</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="40">
         <v>0.5</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="40">
         <v>0.95524865872714004</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="40">
         <v>1.825</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="39">
         <v>100</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F21" s="39">
         <v>150</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G21" s="39">
         <v>200</v>
       </c>
-      <c r="H21" s="48">
+      <c r="H21" s="39">
         <v>630720</v>
       </c>
-      <c r="I21" s="48">
+      <c r="I21" s="39">
         <v>946080</v>
       </c>
-      <c r="J21" s="48">
+      <c r="J21" s="39">
         <v>1261440</v>
       </c>
-      <c r="K21" s="51">
+      <c r="K21" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="48">
+      <c r="L21" s="39">
         <v>0</v>
       </c>
-      <c r="M21" s="51">
+      <c r="M21" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N21" s="48">
+      <c r="N21" s="39">
         <v>0</v>
       </c>
-      <c r="O21" s="48">
+      <c r="O21" s="39">
         <v>0</v>
       </c>
-      <c r="P21" s="48">
+      <c r="P21" s="39">
         <v>0</v>
       </c>
-      <c r="Q21" s="48">
+      <c r="Q21" s="39">
         <v>0</v>
       </c>
-      <c r="R21" s="48">
+      <c r="R21" s="39">
         <v>0</v>
       </c>
-      <c r="S21" s="48">
+      <c r="S21" s="39">
         <v>0</v>
       </c>
-      <c r="T21" s="48">
+      <c r="T21" s="39">
         <v>0</v>
       </c>
-      <c r="U21" s="48">
+      <c r="U21" s="39">
         <v>0</v>
       </c>
-      <c r="V21" s="48">
+      <c r="V21" s="39">
         <v>0</v>
       </c>
-      <c r="W21" s="48">
+      <c r="W21" s="39">
         <v>0</v>
       </c>
-      <c r="X21" s="51">
+      <c r="X21" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="48">
+      <c r="Y21" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="48">
+      <c r="A22" s="39">
         <v>2043</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="40">
         <v>0.5</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="40">
         <v>0.95524865872714004</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="40">
         <v>1.825</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="39">
         <v>100</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="39">
         <v>150</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="39">
         <v>200</v>
       </c>
-      <c r="H22" s="48">
+      <c r="H22" s="39">
         <v>630720</v>
       </c>
-      <c r="I22" s="48">
+      <c r="I22" s="39">
         <v>946080</v>
       </c>
-      <c r="J22" s="48">
+      <c r="J22" s="39">
         <v>1261440</v>
       </c>
-      <c r="K22" s="51">
+      <c r="K22" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="48">
+      <c r="L22" s="39">
         <v>0</v>
       </c>
-      <c r="M22" s="51">
+      <c r="M22" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N22" s="48">
+      <c r="N22" s="39">
         <v>0</v>
       </c>
-      <c r="O22" s="48">
+      <c r="O22" s="39">
         <v>0</v>
       </c>
-      <c r="P22" s="48">
+      <c r="P22" s="39">
         <v>0</v>
       </c>
-      <c r="Q22" s="48">
+      <c r="Q22" s="39">
         <v>0</v>
       </c>
-      <c r="R22" s="48">
+      <c r="R22" s="39">
         <v>0</v>
       </c>
-      <c r="S22" s="48">
+      <c r="S22" s="39">
         <v>0</v>
       </c>
-      <c r="T22" s="48">
+      <c r="T22" s="39">
         <v>0</v>
       </c>
-      <c r="U22" s="48">
+      <c r="U22" s="39">
         <v>0</v>
       </c>
-      <c r="V22" s="48">
+      <c r="V22" s="39">
         <v>0</v>
       </c>
-      <c r="W22" s="48">
+      <c r="W22" s="39">
         <v>0</v>
       </c>
-      <c r="X22" s="51">
+      <c r="X22" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="48">
+      <c r="Y22" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C24" s="52">
-        <f>AVERAGE(B3,D3)</f>
-        <v>1.165</v>
-      </c>
-    </row>
+    <row r="23" spans="1:25" s="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:25" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="53"/>
+    </row>
+    <row r="25" spans="1:25" s="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:25" s="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:25" s="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:25" s="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:25" s="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:25" s="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:25" s="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:25" s="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="52" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B1:D1"/>
@@ -2898,16 +2912,16 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="45"/>
+      <c r="C15" s="50"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
@@ -2979,19 +2993,19 @@
       <c r="F22" s="37"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="45"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="37"/>
       <c r="F23" s="37"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="11" t="s">
         <v>23</v>
       </c>
@@ -3103,17 +3117,17 @@
       <c r="F30" s="37"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="45"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="50"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="12" t="s">
         <v>23</v>
       </c>
@@ -3185,16 +3199,16 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="42"/>
+      <c r="C42" s="47"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="12" t="s">
         <v>30</v>
       </c>
